--- a/Excel/ProjectS/Datas/SkillConfig/SkillCanvas.xlsx
+++ b/Excel/ProjectS/Datas/SkillConfig/SkillCanvas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32115" windowHeight="7470"/>
+    <workbookView windowWidth="18525" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
